--- a/ver_1.0.0/WeightScaleGen2.BGC.Web/_TemplateFile/WeightIn/weight_in.xlsx
+++ b/ver_1.0.0/WeightScaleGen2.BGC.Web/_TemplateFile/WeightIn/weight_in.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suppakit.s\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 2025 BG\018 - BG - Weight Scale\3 Programs\Weight_Scale\ver_1.0.0\WeightScaleGen2.BGC.Web\_TemplateFile\WeightIn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9DA43F-45AE-4A8F-B3AD-6D61BF868B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEDC797-4A8A-4947-B50A-7C97FFAB5676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{38089DCE-DF5F-472E-9FDA-0BEDC2179FBC}"/>
   </bookViews>
   <sheets>
     <sheet name="weight_in" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">weight_in!$A$1:$N$34</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -165,7 +168,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,61 +208,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="FC Iconic"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="FC Iconic thin"/>
-      <charset val="222"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="FC Iconic"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color theme="1"/>
-      <name val="FC Iconic"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="FC Iconic"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="FC Iconic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="FC Iconic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="FC Iconic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="FC Iconic thin"/>
-      <charset val="222"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="FC Iconic"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -293,120 +308,125 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -743,13 +763,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409CE4BE-A4C0-4940-BD04-361E90939325}">
-  <dimension ref="B1:N34"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="L6" activeCellId="10" sqref="L20:M20 L22:M22 L24:M24 C28:N28 K13:N13 K12:N12 D12:H12 D13:H13 C9:J9 M9:N9 L6:N8"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScale="145" zoomScaleNormal="100" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="1.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.140625" style="1" customWidth="1"/>
@@ -768,536 +791,689 @@
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B1" s="21" t="s">
+    <row r="1" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5"/>
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="21" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-    </row>
-    <row r="2" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-    </row>
-    <row r="3" spans="2:14" s="7" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B3" s="22" t="s">
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+    </row>
+    <row r="2" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+    </row>
+    <row r="3" spans="1:14" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7"/>
+      <c r="B3" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="22" t="s">
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-    </row>
-    <row r="4" spans="2:14" s="7" customFormat="1" ht="12" customHeight="1">
-      <c r="B4" s="22" t="s">
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+    </row>
+    <row r="4" spans="1:14" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7"/>
+      <c r="B4" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="23" t="s">
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-    </row>
-    <row r="5" spans="2:14" s="7" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B5" s="22" t="s">
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+    </row>
+    <row r="5" spans="1:14" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7"/>
+      <c r="B5" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="23" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-    </row>
-    <row r="6" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="29" t="s">
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+    </row>
+    <row r="6" spans="1:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-    </row>
-    <row r="7" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-    </row>
-    <row r="8" spans="2:14" ht="9.75" customHeight="1">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="39" t="s">
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+    </row>
+    <row r="7" spans="1:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+    </row>
+    <row r="8" spans="1:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-    </row>
-    <row r="9" spans="2:14" ht="18">
-      <c r="B9" s="9" t="s">
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+    </row>
+    <row r="9" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+      <c r="B9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="28" t="s">
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-    </row>
-    <row r="10" spans="2:14" ht="1.5" customHeight="1">
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-    </row>
-    <row r="11" spans="2:14" s="2" customFormat="1" ht="1.5" customHeight="1"/>
-    <row r="12" spans="2:14" s="6" customFormat="1" ht="22.5">
-      <c r="B12" s="31" t="s">
+      <c r="L9" s="38"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+    </row>
+    <row r="10" spans="1:14" ht="1.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+    </row>
+    <row r="11" spans="1:14" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+    </row>
+    <row r="12" spans="1:14" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="44"/>
+      <c r="B12" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31" t="s">
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="31"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-    </row>
-    <row r="13" spans="2:14" s="6" customFormat="1" ht="22.5">
-      <c r="B13" s="31" t="s">
+      <c r="J12" s="24"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+    </row>
+    <row r="13" spans="1:14" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="44"/>
+      <c r="B13" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31" t="s">
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-    </row>
-    <row r="14" spans="2:14" s="2" customFormat="1" ht="1.5" customHeight="1">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="2:14" s="2" customFormat="1" ht="1.5" customHeight="1"/>
-    <row r="16" spans="2:14" ht="19.5" customHeight="1">
-      <c r="B16" s="40" t="s">
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+    </row>
+    <row r="14" spans="1:14" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+    </row>
+    <row r="15" spans="1:14" s="2" customFormat="1" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+    </row>
+    <row r="16" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
+      <c r="B16" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="40"/>
-      <c r="K16" s="41">
-        <v>99999.99</v>
-      </c>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="19" t="s">
+      <c r="J16" s="29"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:14" s="2" customFormat="1" ht="1.5" customHeight="1"/>
-    <row r="18" spans="2:14" ht="15" customHeight="1">
+    <row r="17" spans="1:14" s="2" customFormat="1" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5"/>
       <c r="B18" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="18" t="s">
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="32" t="s">
+      <c r="G18" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="43" t="s">
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="13"/>
-    </row>
-    <row r="19" spans="2:14" s="2" customFormat="1" ht="1.5" customHeight="1">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="14"/>
+    </row>
+    <row r="19" spans="1:14" s="2" customFormat="1" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
       <c r="F19" s="20"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-    </row>
-    <row r="20" spans="2:14" ht="15" customHeight="1">
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
       <c r="B20" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="18" t="s">
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="32" t="s">
+      <c r="G20" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="18" t="s">
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="13" t="s">
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:14" s="2" customFormat="1" ht="1.5" customHeight="1">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
+    <row r="21" spans="1:14" s="2" customFormat="1" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-    </row>
-    <row r="22" spans="2:14" ht="15" customHeight="1">
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5"/>
       <c r="B22" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="18" t="s">
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="32" t="s">
+      <c r="G22" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="18" t="s">
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="13" t="s">
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:14" s="2" customFormat="1" ht="1.5" customHeight="1">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
+    <row r="23" spans="1:14" s="2" customFormat="1" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
       <c r="F23" s="20"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-    </row>
-    <row r="24" spans="2:14" ht="15" customHeight="1">
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5"/>
       <c r="B24" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="18" t="s">
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="32" t="s">
+      <c r="G24" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="18" t="s">
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="13" t="s">
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="2:14" s="2" customFormat="1" ht="1.5" customHeight="1">
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
+    <row r="25" spans="1:14" s="2" customFormat="1" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
       <c r="F25" s="20"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-    </row>
-    <row r="26" spans="2:14" ht="15" customHeight="1">
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5"/>
       <c r="B26" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="18" t="s">
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="32" t="s">
+      <c r="G26" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-    </row>
-    <row r="27" spans="2:14" s="2" customFormat="1" ht="12" customHeight="1">
-      <c r="B27" s="5"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="2:14">
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+    </row>
+    <row r="27" spans="1:14" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
       <c r="B28" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-    </row>
-    <row r="29" spans="2:14" s="2" customFormat="1" ht="12">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-    </row>
-    <row r="30" spans="2:14" s="2" customFormat="1" ht="9" customHeight="1"/>
-    <row r="31" spans="2:14" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="B31" s="33" t="s">
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+    </row>
+    <row r="29" spans="1:14" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+    </row>
+    <row r="30" spans="1:14" s="2" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+    </row>
+    <row r="31" spans="1:14" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="34" t="s">
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-    </row>
-    <row r="32" spans="2:14" s="2" customFormat="1" ht="6" customHeight="1"/>
-    <row r="33" spans="2:14" ht="31.5" customHeight="1">
-      <c r="B33" s="35" t="s">
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+    </row>
+    <row r="32" spans="1:14" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+    </row>
+    <row r="33" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5"/>
+      <c r="B33" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="35" t="s">
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="36" t="s">
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="N33" s="36"/>
-    </row>
-    <row r="34" spans="2:14" ht="21.75" customHeight="1"/>
+      <c r="N33" s="34"/>
+    </row>
+    <row r="34" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="B1:G2"/>
+    <mergeCell ref="I1:N2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="B10:N10"/>
+    <mergeCell ref="L6:N8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="G6:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="C28:N28"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:N31"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="L24:M24"/>
     <mergeCell ref="K16:M16"/>
     <mergeCell ref="D13:H13"/>
     <mergeCell ref="K18:M18"/>
@@ -1311,41 +1487,8 @@
     <mergeCell ref="G20:J20"/>
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="C28:N28"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:N31"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B10:N10"/>
-    <mergeCell ref="L6:N8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="G6:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B1:G2"/>
-    <mergeCell ref="I1:N2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="I3:N3"/>
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="I5:N5"/>
   </mergeCells>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="11" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>